--- a/IPL/Kolkata Knight Riders/Nitish Rana .xlsx
+++ b/IPL/Kolkata Knight Riders/Nitish Rana .xlsx
@@ -408,16 +408,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C2" t="str">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D2" t="str">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E2" t="str">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -448,16 +448,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C4" t="str">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E4" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -468,13 +468,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C5" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C6" t="str">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -508,16 +508,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C7" t="str">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -528,13 +528,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C8" t="str">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D8" t="str">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E8" t="str">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F8" t="str">
         <v>1</v>
@@ -548,16 +548,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C9" t="str">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="D9" t="str">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E9" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -568,16 +568,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C10" t="str">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D10" t="str">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E10" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -588,13 +588,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C11" t="str">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D11" t="str">
+        <v>13</v>
+      </c>
+      <c r="E11" t="str">
         <v>6</v>
-      </c>
-      <c r="E11" t="str">
-        <v>1</v>
       </c>
       <c r="F11" t="str">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C12" t="str">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D12" t="str">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E12" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -628,16 +628,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C13" t="str">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -648,16 +648,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C14" t="str">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D14" t="str">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E14" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -668,16 +668,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C15" t="str">
+        <v>22</v>
+      </c>
+      <c r="D15" t="str">
+        <v>17</v>
+      </c>
+      <c r="E15" t="str">
         <v>2</v>
       </c>
-      <c r="D15" t="str">
-        <v>4</v>
-      </c>
-      <c r="E15" t="str">
-        <v>0</v>
-      </c>
       <c r="F15" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/IPL/Kolkata Knight Riders/Nitish Rana .xlsx
+++ b/IPL/Kolkata Knight Riders/Nitish Rana .xlsx
@@ -408,13 +408,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C2" t="str">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D2" t="str">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E2" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" t="str">
         <v>4</v>
@@ -428,13 +428,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C4" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C5" t="str">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D5" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -488,10 +488,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C6" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C7" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
@@ -528,16 +528,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C8" t="str">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D8" t="str">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E8" t="str">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -548,16 +548,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C9" t="str">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D9" t="str">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -568,16 +568,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C10" t="str">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D10" t="str">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E10" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -588,13 +588,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C11" t="str">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D11" t="str">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C12" t="str">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D12" t="str">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -648,16 +648,16 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C14" t="str">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D14" t="str">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E14" t="str">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F14" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
